--- a/S2L3/TABELLE_PIVOT1.xlsx
+++ b/S2L3/TABELLE_PIVOT1.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcocerri_1/Desktop/digichamps/S2L3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DF97FA-0E10-9D40-9EEA-5C995E1B273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEAEA9C-BAFC-9845-A0A8-BB73AAFDFC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1400" windowWidth="25640" windowHeight="16160" activeTab="1" xr2:uid="{2B7069F3-2449-4347-8362-C879562CC36D}"/>
+    <workbookView xWindow="2920" yWindow="880" windowWidth="25640" windowHeight="16160" activeTab="1" xr2:uid="{2B7069F3-2449-4347-8362-C879562CC36D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio5" sheetId="5" r:id="rId1"/>
-    <sheet name="Foglio8" sheetId="8" r:id="rId2"/>
-    <sheet name="Foglio10" sheetId="10" r:id="rId3"/>
-    <sheet name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="COMPITO" sheetId="8" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
   <si>
     <t>n. fattura</t>
   </si>
@@ -108,33 +107,6 @@
   </si>
   <si>
     <t>Marco Totale</t>
-  </si>
-  <si>
-    <t>1) Domanda</t>
-  </si>
-  <si>
-    <t>2) Domanda</t>
-  </si>
-  <si>
-    <t>3) Domanda</t>
-  </si>
-  <si>
-    <t>4) Domanda</t>
-  </si>
-  <si>
-    <t>Marco in Germania</t>
-  </si>
-  <si>
-    <t>5) Domanda</t>
-  </si>
-  <si>
-    <t>Francia</t>
-  </si>
-  <si>
-    <t>6) Domanda</t>
-  </si>
-  <si>
-    <t>Spagna e ha fatturato 34,98</t>
   </si>
   <si>
     <t>PRIMA DOMANDA</t>
@@ -276,19 +248,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -301,41 +270,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -357,12 +292,12 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -372,6 +307,9 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <fill>
@@ -417,533 +355,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2618,6 +2031,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3979,7 +3504,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78466D9D-6234-FB43-9072-DE96D322D4D5}" name="Tabella pivot2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78466D9D-6234-FB43-9072-DE96D322D4D5}" name="Tabella pivot2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0">
@@ -4107,7 +3632,7 @@
   <dataFields count="1">
     <dataField name="Somma di Imponibile" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
+  <chartFormats count="12">
     <chartFormat chart="0" format="38" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4252,6 +3777,30 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
@@ -4266,7 +3815,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5825090-8EB4-5C46-B916-3AF931937CAC}" name="Tabella pivot12" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5825090-8EB4-5C46-B916-3AF931937CAC}" name="Tabella pivot12" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A71:E79" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -4416,13 +3965,13 @@
     </dataField>
   </dataFields>
   <formats count="3">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4445,7 +3994,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{495CFAE2-6048-3A41-8CE6-39AF58BFC289}" name="Tabella pivot11" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{495CFAE2-6048-3A41-8CE6-39AF58BFC289}" name="Tabella pivot11" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A50:E58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -4595,13 +4144,13 @@
     </dataField>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="7">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4624,7 +4173,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D5386CC-9A97-4444-B74A-9B6EDF920156}" name="Tabella pivot10" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D5386CC-9A97-4444-B74A-9B6EDF920156}" name="Tabella pivot10" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A36:A37" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -4733,10 +4282,10 @@
     <dataField name="Somma di Imponibile" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="55">
+    <format dxfId="9">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="8">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4753,7 +4302,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C83C9FAC-242C-B748-B918-84F710CE4DBC}" name="Tabella pivot8" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C83C9FAC-242C-B748-B918-84F710CE4DBC}" name="Tabella pivot8" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A21:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -4869,10 +4418,10 @@
     <dataField name="Somma di Imponibile" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="91">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4889,7 +4438,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F916D1CD-45D7-2D40-A854-55B51301F640}" name="Tabella pivot7" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F916D1CD-45D7-2D40-A854-55B51301F640}" name="Tabella pivot7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A91:H96" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -5033,7 +4582,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB3B2432-2DFF-3840-87CD-0653D8C60D02}" name="Tabella pivot5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB3B2432-2DFF-3840-87CD-0653D8C60D02}" name="Tabella pivot5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -5142,69 +4691,10 @@
     <dataField name="Somma di Imponibile" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="84">
+    <format dxfId="12">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C61F5EB-0B93-F046-A2B6-9E9EB585D3FF}" name="Tabella pivot9" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:A6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Somma di Imponibile" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5551,18 +5041,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4">
@@ -5582,13 +5072,13 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2349</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>309.77999999999997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>2658.7799999999997</v>
       </c>
     </row>
@@ -5596,11 +5086,10 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>781.56</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>781.56</v>
       </c>
     </row>
@@ -5608,13 +5097,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1691.46</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>417.44</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>2108.9</v>
       </c>
     </row>
@@ -5622,13 +5111,13 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>428.33</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>239.77</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>668.1</v>
       </c>
     </row>
@@ -5636,13 +5125,13 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>789</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>560</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1349</v>
       </c>
     </row>
@@ -5650,13 +5139,13 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>5257.79</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>2308.5500000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>7566.34</v>
       </c>
     </row>
@@ -5667,11 +5156,10 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>320.02999999999997</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>320.02999999999997</v>
       </c>
     </row>
@@ -5679,11 +5167,10 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>34.979999999999997</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>34.979999999999997</v>
       </c>
     </row>
@@ -5691,11 +5178,10 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>245.12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>245.12</v>
       </c>
     </row>
@@ -5703,11 +5189,10 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>127.91</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>127.91</v>
       </c>
     </row>
@@ -5715,13 +5200,13 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>6100.3399999999992</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>1239.67</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>7340.0099999999993</v>
       </c>
     </row>
@@ -5729,13 +5214,13 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>6420.369999999999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>1647.68</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>8068.0499999999993</v>
       </c>
     </row>
@@ -5746,13 +5231,13 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>8089.0999999999995</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>521.09999999999991</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>8610.1999999999989</v>
       </c>
     </row>
@@ -5760,13 +5245,13 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>1443.1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>234.91</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>1678.01</v>
       </c>
     </row>
@@ -5774,11 +5259,10 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>714.08999999999992</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>714.08999999999992</v>
       </c>
     </row>
@@ -5786,13 +5270,13 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>9532.1999999999989</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>1470.1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>11002.3</v>
       </c>
     </row>
@@ -5800,13 +5284,13 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>21210.359999999997</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>5426.33</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>26636.689999999995</v>
       </c>
     </row>
@@ -5820,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5928ACFE-F474-7D40-AA79-90A86934E30A}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5857,205 +5341,159 @@
     <col min="32" max="32" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2015</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
-        <v>5227.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5257.79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H9">
-        <v>9403.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="H12">
-        <v>34.979999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>9403.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <v>9403.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>2016</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B33" t="s">
@@ -6063,7 +5501,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
@@ -6076,42 +5514,42 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="5">
         <v>34.979999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>46</v>
+      <c r="A45" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B48" t="s">
@@ -6119,15 +5557,15 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B51" t="s">
@@ -6144,159 +5582,159 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="11">
         <v>0</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="11">
         <v>4.3356201312584825E-3</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="11">
         <v>0</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="11">
         <v>1.3132262304362892E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="11">
         <v>0.10329432724408366</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="11">
         <v>3.9666338210596119E-2</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="11">
         <v>0</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="11">
         <v>4.1356114442147276E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="11">
         <v>8.8298966210876059E-2</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="11">
         <v>1.5853892824164453E-2</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="11">
         <v>0.15251447424629397</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="11">
         <v>9.2880158908633173E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="11">
         <v>0.35139578713089814</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="11">
         <v>0</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="11">
         <v>0</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="11">
         <v>9.9816456173796364E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="11">
         <v>0.17828963541157283</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="11">
         <v>0.90976258203655158</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="11">
         <v>6.4903701953227963E-2</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="11">
         <v>0.3530130808294874</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="11">
         <v>0.27872128400256929</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="11">
         <v>3.0381566797429371E-2</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="11">
         <v>0.78258182380047803</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="11">
         <v>0.41162096341549942</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="12">
         <v>1</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="12">
         <v>1</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="66" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>48</v>
+      <c r="A66" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B69" t="s">
@@ -6304,15 +5742,15 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
@@ -6329,164 +5767,164 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="11">
         <v>0</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="11">
         <v>4.3356201312584825E-3</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="11">
         <v>0</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="11">
         <v>1.3132262304362892E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="11">
         <v>0.10329432724408366</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="11">
         <v>3.9666338210596119E-2</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="11">
         <v>0</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="11">
         <v>4.1356114442147276E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="11">
         <v>8.8298966210876059E-2</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="11">
         <v>1.5853892824164453E-2</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="11">
         <v>0.15251447424629397</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="11">
         <v>9.2880158908633173E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="11">
         <v>0.35139578713089814</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="11">
         <v>0</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="11">
         <v>0</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="11">
         <v>9.9816456173796364E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="11">
         <v>0.17828963541157283</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="11">
         <v>0.90976258203655158</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="11">
         <v>6.4903701953227963E-2</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="11">
         <v>0.3530130808294874</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="11">
         <v>0.27872128400256929</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="11">
         <v>3.0381566797429371E-2</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="11">
         <v>0.78258182380047803</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="11">
         <v>0.41162096341549942</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="12">
         <v>1</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="12">
         <v>1</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="12">
         <v>1</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="A81" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="A82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="89" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>38</v>
+      <c r="A89" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B92" t="s">
@@ -6512,176 +5950,168 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>2658.7799999999997</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>781.56</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
+      <c r="E93">
         <v>2108.9</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93">
         <v>668.1</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93">
         <v>1349</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93">
         <v>7566.34</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>320.02999999999997</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
         <v>34.979999999999997</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94">
         <v>245.12</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94">
         <v>127.91</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94">
         <v>7340.0099999999993</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94">
         <v>8068.0499999999993</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2">
+      <c r="E95">
         <v>8610.1999999999989</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95">
         <v>1678.01</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95">
         <v>714.08999999999992</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95">
         <v>11002.3</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>2658.7799999999997</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>1101.5899999999999</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
         <v>34.979999999999997</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96">
         <v>10964.22</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96">
         <v>2474.02</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96">
         <v>9403.0999999999985</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96">
         <v>26636.69</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="A98" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="A99" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="A101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="A102" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="A103" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
-      <formula>1000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:H96">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6690,62 +6120,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9116A7-72B0-0A4C-8378-408E975D68CA}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5257.79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA384019-6DE6-4535-A44C-72117CA26052}">
   <dimension ref="A1:E31"/>
   <sheetViews>
